--- a/dimensiones.xlsx
+++ b/dimensiones.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc07b1024ec05c40/Documents/Maestría CDD/Ciclo 1/Visualizacion/Proyecto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marlo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{67F4F375-F5E4-4F86-A025-744F6EFCDAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD62B025-389B-4CC4-BAE8-BCBA6402B9E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FC429-5617-468D-B69C-5227E9A31E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BF5D375-4565-483A-B1DF-E45BFA2E20BD}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{8BF5D375-4565-483A-B1DF-E45BFA2E20BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Departamento " sheetId="1" r:id="rId1"/>
+    <sheet name="Departamento" sheetId="1" r:id="rId1"/>
     <sheet name="Municipio" sheetId="2" r:id="rId2"/>
     <sheet name="Distrito" sheetId="3" r:id="rId3"/>
     <sheet name="M3_Sexo" sheetId="4" r:id="rId4"/>
@@ -39,6 +39,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1598,12 +1601,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,12 +1752,12 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1831,12 +1834,12 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2217,13 +2220,13 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4348,13 +4351,13 @@
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4391,9 +4394,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4430,9 +4433,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4485,12 +4488,12 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4671,9 +4674,9 @@
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4710,9 +4713,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>

--- a/dimensiones.xlsx
+++ b/dimensiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marlo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX\UDB\Maestria CDIN\Ciclo I\VIN629\proyecto\ProyectoFinal-Grupo7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FC429-5617-468D-B69C-5227E9A31E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749C61EF-198B-49B6-A336-38ABAAF9B4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{8BF5D375-4565-483A-B1DF-E45BFA2E20BD}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" tabRatio="925" firstSheet="3" activeTab="3" xr2:uid="{8BF5D375-4565-483A-B1DF-E45BFA2E20BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Departamento" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,10 @@
     <sheet name="GHS_DUG_L1" sheetId="9" r:id="rId9"/>
     <sheet name="GHS_DUG_L2" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -1109,9 +1098,6 @@
     <t>Rural</t>
   </si>
   <si>
-    <t>Zonas Rurales</t>
-  </si>
-  <si>
     <t>Localidades y zonas semidensas</t>
   </si>
   <si>
@@ -1137,6 +1123,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Zonas rurales</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1137,7 @@
     <numFmt numFmtId="165" formatCode="0000"/>
     <numFmt numFmtId="166" formatCode="000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,6 +1157,18 @@
       <color theme="1"/>
       <name val="Museo Sans 300"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1223,10 +1224,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,9 +1260,12 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{AA8E1CB2-D548-4071-B6DC-FCABAF283D9E}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{11629F3D-EFF6-4BA5-A8F1-56BFE2C8879E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1597,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9579128-A6E4-4469-B630-3485ECA23D42}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1736,7 +1742,7 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1755,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1770,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1778,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1786,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1794,7 +1800,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1802,7 +1808,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1810,7 +1816,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1818,7 +1824,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4347,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2501F2-DEC3-4CE0-BFFE-0B4274A80167}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4391,7 +4397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4710,7 +4716,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4727,24 +4733,24 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>353</v>
+      <c r="B2" s="12" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>354</v>
+      <c r="B3" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>352</v>
+      <c r="B4" s="12" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
